--- a/medicine/Psychotrope/Cortese_(cépage)/Cortese_(cépage).xlsx
+++ b/medicine/Psychotrope/Cortese_(cépage)/Cortese_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cortese_(c%C3%A9page)</t>
+          <t>Cortese_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cortese est un cépage italien de raisins blancs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cortese_(c%C3%A9page)</t>
+          <t>Cortese_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il provient du nord de l’Italie.
 Il est classé cépage d'appoint en DOC Bianco di Custoza, Colli Tortonesi, Cortese dell'Alto Monferrato,  Cortese di Gavi, Garda, Monferrato, Oltrepò Pavese et Piemonte. Il est classé recommandé dans les provinces d'Asti, Cuneo et d'Alexandrie en Piémont et la Pavie. Il est autorisé en province de Vérone et pour la Sardaigne. En 1998, il couvrait 2.951 ha.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cortese_(c%C3%A9page)</t>
+          <t>Cortese_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau duveteux vert blanchâtre à liseré carminé.
 Jeunes feuilles aranéeuses,  vert jaunâtre.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cortese_(c%C3%A9page)</t>
+          <t>Cortese_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque moyenne : 20 jours après le chasselas.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cortese_(c%C3%A9page)</t>
+          <t>Cortese_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes à grandes et les baies sont de taille moyenne. La grappe est conique, lâche et ailée. Le cépage est de très bonne vigueur et de bonne production assez régulier. 
 Il est utilisé à la vinification. Les vins blancs sont d'une couleur jaune paille un peu verdâtre, moyennement alcoolique. Il est souvent vinifié quasi seul ou en assemblage avec le trebbiano, le garganega et le tocai friulano.
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cortese_(c%C3%A9page)</t>
+          <t>Cortese_(cépage)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cortese est connu sous les noms de bianca Fernanda, corteis, cortese bianca, cortese bianco, cortese d'Asti, cortese dell'Astigiano, courteis, courteisa
 </t>
